--- a/Education/educational institutions/number-of-schools-by-level-and-type (1999-2018).xlsx
+++ b/Education/educational institutions/number-of-schools-by-level-and-type (1999-2018).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\github stuff\BAVP\Education\educational institutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A227CEA-37D0-42BD-BE7E-7D454ABE5A3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D362E8E7-16FE-42C5-ADD8-D237EFBCCD00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9818" yWindow="-15458" windowWidth="19395" windowHeight="14955"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="11">
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>school_type</t>
-  </si>
-  <si>
-    <t>number_of_secondary_sch</t>
-  </si>
-  <si>
-    <t>number_of_primary_sch</t>
   </si>
   <si>
     <t>Government</t>
@@ -49,16 +40,25 @@
     <t>Specialised</t>
   </si>
   <si>
-    <t>number_of_junior_college</t>
+    <t>school type</t>
   </si>
   <si>
-    <t>number_of_centralised_institute</t>
+    <t>number of secondary school</t>
+  </si>
+  <si>
+    <t>number of primary school</t>
+  </si>
+  <si>
+    <t>number of junior college</t>
+  </si>
+  <si>
+    <t>number of centralised institute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -914,13 +914,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>1999</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>112</v>
@@ -954,7 +954,7 @@
         <v>1999</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -974,7 +974,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -994,7 +994,7 @@
         <v>1999</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>1999</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>2000</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>123</v>
@@ -1054,7 +1054,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>28</v>
@@ -1074,7 +1074,7 @@
         <v>2000</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1094,7 +1094,7 @@
         <v>2000</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>2000</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>126</v>
@@ -1154,7 +1154,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>28</v>
@@ -1174,7 +1174,7 @@
         <v>2001</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1194,7 +1194,7 @@
         <v>2001</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>2002</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>127</v>
@@ -1254,7 +1254,7 @@
         <v>2002</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>28</v>
@@ -1274,7 +1274,7 @@
         <v>2002</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1294,7 +1294,7 @@
         <v>2002</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>2002</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>2003</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>126</v>
@@ -1354,7 +1354,7 @@
         <v>2003</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>28</v>
@@ -1374,7 +1374,7 @@
         <v>2003</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1394,7 +1394,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>2003</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>123</v>
@@ -1454,7 +1454,7 @@
         <v>2004</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -1474,7 +1474,7 @@
         <v>2004</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1494,7 +1494,7 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>2004</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>2005</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>123</v>
@@ -1554,7 +1554,7 @@
         <v>2005</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>28</v>
@@ -1574,7 +1574,7 @@
         <v>2005</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1594,7 +1594,7 @@
         <v>2005</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>2005</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>2006</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>122</v>
@@ -1654,7 +1654,7 @@
         <v>2006</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>28</v>
@@ -1674,7 +1674,7 @@
         <v>2006</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1694,7 +1694,7 @@
         <v>2006</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>2006</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>2007</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>120</v>
@@ -1754,7 +1754,7 @@
         <v>2007</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -1774,7 +1774,7 @@
         <v>2007</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1794,7 +1794,7 @@
         <v>2007</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>2007</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>2008</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>120</v>
@@ -1854,7 +1854,7 @@
         <v>2008</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>28</v>
@@ -1874,7 +1874,7 @@
         <v>2008</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1894,7 +1894,7 @@
         <v>2008</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1914,7 +1914,7 @@
         <v>2008</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>2009</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>120</v>
@@ -1954,7 +1954,7 @@
         <v>2009</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>28</v>
@@ -1974,7 +1974,7 @@
         <v>2009</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1994,7 +1994,7 @@
         <v>2009</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>2009</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2034,7 +2034,7 @@
         <v>2010</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>120</v>
@@ -2054,7 +2054,7 @@
         <v>2010</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>28</v>
@@ -2074,7 +2074,7 @@
         <v>2010</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -2094,7 +2094,7 @@
         <v>2010</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>2010</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -2134,7 +2134,7 @@
         <v>2011</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>119</v>
@@ -2154,7 +2154,7 @@
         <v>2011</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>28</v>
@@ -2174,7 +2174,7 @@
         <v>2011</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -2194,7 +2194,7 @@
         <v>2011</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2214,7 +2214,7 @@
         <v>2011</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2234,7 +2234,7 @@
         <v>2012</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>119</v>
@@ -2254,7 +2254,7 @@
         <v>2012</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>28</v>
@@ -2274,7 +2274,7 @@
         <v>2012</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -2294,7 +2294,7 @@
         <v>2012</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2314,7 +2314,7 @@
         <v>2012</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -2334,7 +2334,7 @@
         <v>2013</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>119</v>
@@ -2354,7 +2354,7 @@
         <v>2013</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>28</v>
@@ -2374,7 +2374,7 @@
         <v>2013</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -2394,7 +2394,7 @@
         <v>2013</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>2013</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2434,7 +2434,7 @@
         <v>2014</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>119</v>
@@ -2454,7 +2454,7 @@
         <v>2014</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>28</v>
@@ -2474,7 +2474,7 @@
         <v>2014</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>2014</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2514,7 +2514,7 @@
         <v>2014</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -2534,7 +2534,7 @@
         <v>2015</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>119</v>
@@ -2554,7 +2554,7 @@
         <v>2015</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C83">
         <v>28</v>
@@ -2574,7 +2574,7 @@
         <v>2015</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         <v>2015</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>2015</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -2634,7 +2634,7 @@
         <v>2016</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>115</v>
@@ -2654,7 +2654,7 @@
         <v>2016</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>28</v>
@@ -2674,7 +2674,7 @@
         <v>2016</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2694,7 +2694,7 @@
         <v>2016</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>2016</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -2734,7 +2734,7 @@
         <v>2017</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>108</v>
@@ -2754,7 +2754,7 @@
         <v>2017</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>28</v>
@@ -2774,7 +2774,7 @@
         <v>2017</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2794,7 +2794,7 @@
         <v>2017</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2814,7 +2814,7 @@
         <v>2017</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2834,7 +2834,7 @@
         <v>2018</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>104</v>
@@ -2854,7 +2854,7 @@
         <v>2018</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>28</v>
@@ -2874,7 +2874,7 @@
         <v>2018</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>2018</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2914,7 +2914,7 @@
         <v>2018</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101">
         <v>4</v>
